--- a/spliced/falling/2023-03-25_17-55-55/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-55/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>-0.0491746515035629</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.0039706239476799</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0164933614432811</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.0076358155347406</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_17-55-55/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-55/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.294895201921463</v>
+        <v>-0.005192354787141</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9447031021118164</v>
+        <v>0.0755945742130279</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0591012127697467</v>
+        <v>0.0082466807216405</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.011148290708661</v>
+        <v>0.00167987938039</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4109596014022827</v>
+        <v>0.0209221355617046</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3446807265281677</v>
+        <v>-0.0082466807216405</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.3101668357849121</v>
+        <v>0.0074830991216003</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0274889357388019</v>
+        <v>-0.0106901414692401</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0977384373545646</v>
+        <v>0.0113010071218013</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.2105957865715026</v>
+        <v>-0.0024434609804302</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9750936627388</v>
+        <v>0.0310014113783836</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.285871386528015</v>
+        <v>0.0187841057777404</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1690569519996643</v>
+        <v>-0.0039706239476799</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0616973899304866</v>
+        <v>0.0114537235349416</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9847147464752196</v>
+        <v>-0.0603229440748691</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.828319668769836</v>
+        <v>-0.08918632566928859</v>
       </c>
       <c r="B7" t="n">
-        <v>1.374752283096314</v>
+        <v>0.2981022298336029</v>
       </c>
       <c r="C7" t="n">
-        <v>2.351678371429444</v>
+        <v>0.0048869219608604</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.769065737724304</v>
+        <v>-0.2064724564552307</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.171639561653137</v>
+        <v>0.7906123399734497</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.7515169382095337</v>
+        <v>0.058184914290905</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3782783150672912</v>
+        <v>-0.294895201921463</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.1327104717493057</v>
+        <v>0.9447031021118164</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1701259762048721</v>
+        <v>0.0591012127697467</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.3932445049285888</v>
+        <v>-0.011148290708661</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.6039929986000061</v>
+        <v>-0.4109596014022827</v>
       </c>
       <c r="C10" t="n">
-        <v>1.466076612472534</v>
+        <v>0.3446807265281677</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.2658790946006775</v>
+        <v>-0.3101668357849121</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.8356636762619019</v>
+        <v>-0.0274889357388019</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.123686671257019</v>
+        <v>-0.0977384373545646</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.1258382350206375</v>
+        <v>-0.2105957865715026</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.4847215712070465</v>
+        <v>0.9750936627388</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2483167201280594</v>
+        <v>-1.285871386528015</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.1476766765117645</v>
+        <v>0.1690569519996643</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0491746515035629</v>
+        <v>-0.0616973899304866</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3875939846038818</v>
+        <v>-0.9847147464752196</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.001527163083665</v>
+        <v>-1.828319668769836</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3072652220726013</v>
+        <v>1.374752283096314</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0675006061792373</v>
+        <v>2.351678371429444</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.0311541277915239</v>
+        <v>1.769065737724304</v>
       </c>
       <c r="B15" t="n">
-        <v>0.040775254368782</v>
+        <v>-1.171639561653137</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.4699080884456634</v>
+        <v>-0.7515169382095337</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.007941247895359899</v>
+        <v>0.3782783150672912</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.0103847095742821</v>
+        <v>-0.1327104717493057</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0820086598396301</v>
+        <v>0.1701259762048721</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.012980886735022</v>
+        <v>-0.3932445049285888</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1769981980323791</v>
+        <v>-0.6039929986000061</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0358883328735828</v>
+        <v>1.466076612472534</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0025961773935705</v>
+        <v>-0.2658790946006775</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0377209298312664</v>
+        <v>-0.8356636762619019</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1343903541564941</v>
+        <v>-1.123686671257019</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0339030213654041</v>
+        <v>-0.1258382350206375</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0348193198442459</v>
+        <v>-0.4847215712070465</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0242818929255008</v>
+        <v>-0.2483167201280594</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0064140851609408</v>
+        <v>-0.1476766765117645</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0251981914043426</v>
+        <v>0.0491746515035629</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0591012127697467</v>
+        <v>0.3875939846038818</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>0.001527163083665</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.3072652220726013</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0675006061792373</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.0311541277915239</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.040775254368782</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.4699080884456634</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.007941247895359899</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.0103847095742821</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0820086598396301</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.012980886735022</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1769981980323791</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0358883328735828</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.0025961773935705</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.0377209298312664</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.1343903541564941</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.0339030213654041</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.0348193198442459</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0242818929255008</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.0064140851609408</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0251981914043426</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0591012127697467</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>0.0099265603348612</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B28" t="n">
         <v>-0.0109955742955207</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C28" t="n">
         <v>-0.0491746515035629</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.0039706239476799</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0164933614432811</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.0076358155347406</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.0065668015740811</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.0163406450301408</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0088575463742017</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.009315694682300001</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.0369573459029197</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.0157297793775796</v>
       </c>
     </row>
   </sheetData>
